--- a/data/trans_dic/IP21B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP21B-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>11,94%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,55</t>
+          <t>0; 36,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,16</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,56</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 51,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 55,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 25,16</t>
+          <t>0; 36,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 42,45</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 43,68</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,39</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,37 +936,37 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -976,22 +976,22 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>21,07%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,78</t>
+          <t>0,0; 40,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 51,66</t>
+          <t>0,0; 50,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,88</t>
+          <t>0,0; 61,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,43</t>
+          <t>0,0; 79,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,8</t>
+          <t>0,0; 34,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,03</t>
+          <t>6,51; 51,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,87; 85,15</t>
+          <t>8,47; 55,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 37,36</t>
+          <t>3,06; 25,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 40,71</t>
+          <t>8,04; 42,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 56,33</t>
+          <t>8,67; 43,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,04</t>
+          <t>0,0; 57,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9,85%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>48,57%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,98%</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 38,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>5,9; 41,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,49 +1164,49 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 15,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 20,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 83,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 26,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>3,88; 29,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 61,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 83,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20,16%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>42,65%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>37,98%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>32,68%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,82</t>
+          <t>0,0; 36,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,9; 41,79</t>
+          <t>5,87; 51,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 56,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 79,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 78,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,0; 56,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>12,87; 85,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,19</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,11</t>
+          <t>4,28; 37,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 29,63</t>
+          <t>7,58; 40,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,17</t>
+          <t>6,99; 56,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,19</t>
+          <t>0,0; 72,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP21B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP21B-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,84</t>
+          <t>0,0; 63,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,05</t>
+          <t>0,0; 65,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,89</t>
+          <t>0,0; 56,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,77</t>
+          <t>0,0; 31,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,94</t>
+          <t>0,0; 47,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,46</t>
+          <t>0,0; 50,29</t>
         </is>
       </c>
     </row>
@@ -1004,37 +1004,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,55</t>
+          <t>0,0; 40,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,16</t>
+          <t>0,0; 59,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,56</t>
+          <t>0,0; 50,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,77</t>
+          <t>0,0; 79,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,65</t>
+          <t>0,0; 32,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 51,93</t>
+          <t>6,6; 56,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,47; 55,25</t>
+          <t>7,56; 56,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,22 +1044,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 25,16</t>
+          <t>3,14; 27,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,04; 42,45</t>
+          <t>8,41; 42,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,67; 43,68</t>
+          <t>8,59; 43,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,39</t>
+          <t>0,0; 55,53</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,82</t>
+          <t>0,0; 39,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 41,79</t>
+          <t>5,86; 45,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,19</t>
+          <t>0,0; 76,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,11</t>
+          <t>0,0; 25,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 29,63</t>
+          <t>3,82; 33,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,17</t>
+          <t>0,0; 62,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,19</t>
+          <t>0,0; 76,93</t>
         </is>
       </c>
     </row>
@@ -1284,37 +1284,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,78</t>
+          <t>0,0; 36,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 51,66</t>
+          <t>6,31; 50,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,88</t>
+          <t>0,0; 56,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,43</t>
+          <t>0,0; 80,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,8</t>
+          <t>0,0; 78,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,03</t>
+          <t>0,0; 50,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,87; 85,15</t>
+          <t>12,74; 82,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,22 +1324,22 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 37,36</t>
+          <t>4,19; 33,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,58; 40,71</t>
+          <t>8,08; 40,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,99; 56,33</t>
+          <t>6,82; 56,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,04</t>
+          <t>0,0; 72,58</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,29; 22,93</t>
+          <t>4,34; 24,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,1; 31,21</t>
+          <t>8,13; 30,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,93; 40,87</t>
+          <t>8,5; 39,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,31; 54,09</t>
+          <t>6,93; 52,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 21,69</t>
+          <t>2,27; 21,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,22; 30,07</t>
+          <t>6,97; 29,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,84; 39,94</t>
+          <t>9,54; 39,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,85; 52,76</t>
+          <t>7,02; 54,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,38; 19,07</t>
+          <t>5,61; 19,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,75; 25,26</t>
+          <t>10,46; 25,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,2; 33,65</t>
+          <t>13,09; 34,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,11; 43,7</t>
+          <t>11,81; 43,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP21B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP21B-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,96</t>
+          <t>0,0; 57,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,58</t>
+          <t>0,0; 64,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,31</t>
+          <t>0,0; 65,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -904,29 +904,29 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,42</t>
+          <t>0,0; 64,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,37</t>
+          <t>0,0; 31,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,17</t>
+          <t>0,0; 46,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,29</t>
+          <t>0,0; 57,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,37 +1004,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,59</t>
+          <t>0,0; 39,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,27</t>
+          <t>0,0; 59,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,88</t>
+          <t>0,0; 49,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,33</t>
+          <t>0,0; 78,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,71</t>
+          <t>0,0; 32,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 56,44</t>
+          <t>6,48; 51,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,56; 56,02</t>
+          <t>7,36; 55,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,29 +1044,29 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 27,4</t>
+          <t>3,18; 27,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 42,34</t>
+          <t>11,29; 45,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,59; 43,29</t>
+          <t>8,49; 47,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,53</t>
+          <t>0,0; 62,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,29</t>
+          <t>0,0; 38,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 45,36</t>
+          <t>5,92; 40,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,93</t>
+          <t>0,0; 72,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,33</t>
+          <t>0,0; 24,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 33,99</t>
+          <t>3,87; 33,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,13</t>
+          <t>0,0; 67,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,93</t>
+          <t>0,0; 72,65</t>
         </is>
       </c>
     </row>
@@ -1284,37 +1284,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,99</t>
+          <t>0,0; 37,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,31; 50,05</t>
+          <t>6,48; 54,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,74</t>
+          <t>0,0; 56,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,78</t>
+          <t>0,0; 79,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,76</t>
+          <t>0,0; 79,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,06</t>
+          <t>0,0; 55,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,74; 82,55</t>
+          <t>12,77; 85,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,22 +1324,22 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 33,88</t>
+          <t>4,23; 33,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,08; 40,75</t>
+          <t>7,84; 40,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 56,78</t>
+          <t>7,02; 57,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,58</t>
+          <t>0,0; 72,3</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,34; 24,66</t>
+          <t>4,34; 24,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,13; 30,15</t>
+          <t>9,48; 30,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,5; 39,31</t>
+          <t>7,77; 39,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,93; 52,11</t>
+          <t>7,32; 51,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 21,47</t>
+          <t>2,74; 24,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,97; 29,16</t>
+          <t>7,08; 29,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,54; 39,7</t>
+          <t>10,7; 40,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,02; 54,57</t>
+          <t>6,66; 53,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,61; 19,38</t>
+          <t>5,55; 20,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,46; 25,64</t>
+          <t>10,12; 25,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,09; 34,1</t>
+          <t>12,13; 35,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,81; 43,76</t>
+          <t>11,09; 43,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP21B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP21B-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29,59%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13,64%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,53%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 64,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 83,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 57,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 42,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 58,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 39,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 26,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 36,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 46,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -816,42 +816,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>21,27%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 34,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,95</t>
+          <t>6,51; 51,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,89</t>
+          <t>8,47; 55,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,01</t>
+          <t>0,0; 40,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 50,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 61,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,93</t>
+          <t>0,0; 80,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,2</t>
+          <t>3,06; 25,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,09</t>
+          <t>8,04; 42,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,02</t>
+          <t>8,67; 43,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,76</t>
+          <t>0,0; 57,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>48,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>36,45%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,52</t>
+          <t>0; 15,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,3</t>
+          <t>0; 20,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,34</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,55</t>
+          <t>0,0; 82,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,34</t>
+          <t>0,0; 38,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 51,67</t>
+          <t>5,9; 41,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 55,93</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 27,21</t>
+          <t>0,0; 26,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,29; 45,2</t>
+          <t>3,88; 29,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 47,0</t>
+          <t>0,0; 61,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,18</t>
+          <t>0,0; 82,28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>42,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>38,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>33,4%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,87</t>
+          <t>0,0; 78,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 40,34</t>
+          <t>0,0; 56,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>12,87; 85,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 36,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>5,87; 51,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 56,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,65</t>
+          <t>0,0; 79,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,95</t>
+          <t>4,28; 37,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 33,6</t>
+          <t>7,58; 40,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,16</t>
+          <t>6,99; 56,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,65</t>
+          <t>0,0; 72,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>25,11%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,14</t>
+          <t>2,51; 21,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 54,35</t>
+          <t>5,22; 30,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,62</t>
+          <t>9,84; 39,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,08</t>
+          <t>6,57; 51,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,65</t>
+          <t>4,29; 22,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,69</t>
+          <t>8,1; 31,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,77; 85,5</t>
+          <t>7,93; 40,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>7,28; 54,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 33,6</t>
+          <t>5,38; 19,07</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,84; 40,6</t>
+          <t>9,75; 25,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 57,56</t>
+          <t>12,2; 33,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,3</t>
+          <t>11,04; 43,04</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>12,27%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>18,03%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>21,23%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>25,91%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>9,72%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>15,53%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>22,51%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>25,04%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>11,16%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>16,87%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>21,88%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>25,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 24,53</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,48; 30,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,77; 39,12</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,32; 51,12</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 24,36</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 29,73</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>10,7; 40,69</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,66; 53,93</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,55; 20,01</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>10,12; 25,81</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>12,13; 35,12</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>11,09; 43,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
